--- a/src/急性A型肝炎_検査推移.xlsx
+++ b/src/急性A型肝炎_検査推移.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>WBC</t>
     <phoneticPr fontId="1"/>
@@ -84,6 +84,10 @@
     <t>IgM-HA</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>PT%</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -141,8 +145,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -228,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="101">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -269,6 +293,16 @@
     <cellStyle name="ハイパーリンク" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -310,6 +344,16 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="100" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -640,17 +684,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -741,6 +788,9 @@
         <f t="shared" ref="B3:B18" si="0">ROUNDDOWN(A3-$A$2,2)</f>
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>73.400000000000006</v>
+      </c>
       <c r="D3">
         <v>2.2999999999999998</v>
       </c>
@@ -786,6 +836,9 @@
         <f t="shared" si="0"/>
         <v>1.33</v>
       </c>
+      <c r="C4">
+        <v>65.5</v>
+      </c>
       <c r="D4">
         <v>2.2000000000000002</v>
       </c>
@@ -825,6 +878,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="C5">
+        <v>67.7</v>
+      </c>
       <c r="D5">
         <v>2.8</v>
       </c>
@@ -870,6 +926,9 @@
         <f t="shared" si="0"/>
         <v>2.33</v>
       </c>
+      <c r="C6">
+        <v>61.4</v>
+      </c>
       <c r="D6">
         <v>2.8</v>
       </c>
@@ -915,6 +974,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="C7">
+        <v>76.5</v>
+      </c>
       <c r="D7">
         <v>1.7</v>
       </c>
@@ -954,6 +1016,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="C8">
+        <v>88.4</v>
+      </c>
       <c r="D8">
         <v>7.2</v>
       </c>
@@ -993,6 +1058,9 @@
         <f t="shared" si="0"/>
         <v>4.33</v>
       </c>
+      <c r="C9">
+        <v>93</v>
+      </c>
       <c r="D9">
         <v>7.7</v>
       </c>
@@ -1032,6 +1100,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="C10">
+        <v>98.7</v>
+      </c>
       <c r="D10">
         <v>11.8</v>
       </c>
@@ -1077,6 +1148,9 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="C11">
+        <v>95.3</v>
+      </c>
       <c r="D11">
         <v>9.5</v>
       </c>
@@ -1122,6 +1196,9 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="C12">
+        <v>98.7</v>
+      </c>
       <c r="D12">
         <v>5.8</v>
       </c>
@@ -1170,6 +1247,9 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="C13">
+        <v>93.7</v>
+      </c>
       <c r="D13">
         <v>4.2</v>
       </c>
@@ -1212,6 +1292,9 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
+      <c r="C14">
+        <v>89</v>
+      </c>
       <c r="D14">
         <v>3</v>
       </c>
@@ -1254,6 +1337,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="C15">
+        <v>92.1</v>
+      </c>
       <c r="D15">
         <v>3.2</v>
       </c>
@@ -1296,6 +1382,9 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
+      <c r="C16">
+        <v>101.2</v>
+      </c>
       <c r="D16">
         <v>4.9000000000000004</v>
       </c>
@@ -1409,8 +1498,12 @@
       </c>
     </row>
     <row r="20" spans="1:16">
+      <c r="D20" t="str">
+        <f t="shared" ref="C20:G20" si="1">"["&amp;$B2&amp;","&amp;D2&amp;"]"</f>
+        <v>[0,3.8]</v>
+      </c>
       <c r="E20" t="str">
-        <f t="shared" ref="E20:G20" si="1">"["&amp;$B2&amp;","&amp;E2&amp;"]"</f>
+        <f t="shared" si="1"/>
         <v>[0,92]</v>
       </c>
       <c r="G20" t="str">
@@ -1455,718 +1548,838 @@
       </c>
     </row>
     <row r="21" spans="1:16">
+      <c r="C21" t="str">
+        <f t="shared" ref="C21" si="3">"["&amp;$B3&amp;","&amp;C3&amp;"]"</f>
+        <v>[1,73.4]</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" ref="D21" si="4">"["&amp;$B3&amp;","&amp;D3&amp;"]"</f>
+        <v>[1,2.3]</v>
+      </c>
       <c r="E21" t="str">
-        <f t="shared" ref="E21:F21" si="3">"["&amp;$B3&amp;","&amp;E3&amp;"]"</f>
+        <f t="shared" ref="E21:F21" si="5">"["&amp;$B3&amp;","&amp;E3&amp;"]"</f>
         <v>[1,80]</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>[1,2.34]</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" ref="H21:P21" si="4">"["&amp;$B3&amp;","&amp;H3&amp;"]"</f>
+        <f t="shared" ref="H21:P21" si="6">"["&amp;$B3&amp;","&amp;H3&amp;"]"</f>
         <v>[1,815]</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>[1,1488]</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>[1,952]</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>[1,455]</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>[1,11164]</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>[1,0.9]</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>[1,0.4]</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>[1,35.6]</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>[1,6.7]</v>
       </c>
     </row>
     <row r="22" spans="1:16">
+      <c r="C22" t="str">
+        <f t="shared" ref="C22" si="7">"["&amp;$B4&amp;","&amp;C4&amp;"]"</f>
+        <v>[1.33,65.5]</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" ref="D22" si="8">"["&amp;$B4&amp;","&amp;D4&amp;"]"</f>
+        <v>[1.33,2.2]</v>
+      </c>
       <c r="E22" t="str">
-        <f t="shared" ref="E22:F22" si="5">"["&amp;$B4&amp;","&amp;E4&amp;"]"</f>
+        <f t="shared" ref="E22" si="9">"["&amp;$B4&amp;","&amp;E4&amp;"]"</f>
         <v>[1.33,76]</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" ref="H22:P22" si="6">"["&amp;$B4&amp;","&amp;H4&amp;"]"</f>
+        <f t="shared" ref="H22:P22" si="10">"["&amp;$B4&amp;","&amp;H4&amp;"]"</f>
         <v>[1.33,905]</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>[1.33,1831]</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>[1.33,1313]</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>[1.33,512]</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>[1.33,1341]</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>[1.33,1]</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>[1.33,0.6]</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>[1.33,]</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>[1.33,7.08]</v>
       </c>
     </row>
     <row r="23" spans="1:16">
+      <c r="C23" t="str">
+        <f t="shared" ref="C23" si="11">"["&amp;$B5&amp;","&amp;C5&amp;"]"</f>
+        <v>[2,67.7]</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" ref="D23" si="12">"["&amp;$B5&amp;","&amp;D5&amp;"]"</f>
+        <v>[2,2.8]</v>
+      </c>
       <c r="E23" t="str">
-        <f t="shared" ref="E23:G23" si="7">"["&amp;$B5&amp;","&amp;E5&amp;"]"</f>
+        <f t="shared" ref="E23:G23" si="13">"["&amp;$B5&amp;","&amp;E5&amp;"]"</f>
         <v>[2,70]</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>[2,3]</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" ref="H23:P23" si="8">"["&amp;$B5&amp;","&amp;H5&amp;"]"</f>
+        <f t="shared" ref="H23:P23" si="14">"["&amp;$B5&amp;","&amp;H5&amp;"]"</f>
         <v>[2,941]</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>[2,2140]</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>[2,1765]</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>[2,525]</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>[2,1447]</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>[2,1.2]</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>[2,0.8]</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>[2,78.8]</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>[2,6.41]</v>
       </c>
     </row>
     <row r="24" spans="1:16">
+      <c r="C24" t="str">
+        <f t="shared" ref="C24" si="15">"["&amp;$B6&amp;","&amp;C6&amp;"]"</f>
+        <v>[2.33,61.4]</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" ref="D24" si="16">"["&amp;$B6&amp;","&amp;D6&amp;"]"</f>
+        <v>[2.33,2.8]</v>
+      </c>
       <c r="E24" t="str">
-        <f t="shared" ref="E24:G24" si="9">"["&amp;$B6&amp;","&amp;E6&amp;"]"</f>
+        <f t="shared" ref="E24:G24" si="17">"["&amp;$B6&amp;","&amp;E6&amp;"]"</f>
         <v>[2.33,68]</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>[2.33,1]</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" ref="H24:P24" si="10">"["&amp;$B6&amp;","&amp;H6&amp;"]"</f>
+        <f t="shared" ref="H24:P24" si="18">"["&amp;$B6&amp;","&amp;H6&amp;"]"</f>
         <v>[2.33,1018]</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>[2.33,2407]</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>[2.33,2084]</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>[2.33,542]</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>[2.33,1530]</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>[2.33,1.6]</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>[2.33,1.2]</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>[2.33,223.5]</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>[2.33,5.96]</v>
       </c>
     </row>
     <row r="25" spans="1:16">
+      <c r="C25" t="str">
+        <f t="shared" ref="C25" si="19">"["&amp;$B7&amp;","&amp;C7&amp;"]"</f>
+        <v>[3,76.5]</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" ref="D25" si="20">"["&amp;$B7&amp;","&amp;D7&amp;"]"</f>
+        <v>[3,1.7]</v>
+      </c>
       <c r="E25" t="str">
-        <f t="shared" ref="E25:F25" si="11">"["&amp;$B7&amp;","&amp;E7&amp;"]"</f>
+        <f t="shared" ref="E25" si="21">"["&amp;$B7&amp;","&amp;E7&amp;"]"</f>
         <v>[3,90]</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" ref="H25:P25" si="12">"["&amp;$B7&amp;","&amp;H7&amp;"]"</f>
+        <f t="shared" ref="H25:P25" si="22">"["&amp;$B7&amp;","&amp;H7&amp;"]"</f>
         <v>[3,1131]</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>[3,2130]</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>[3,2430]</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>[3,646]</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>[3,1461]</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>[3,2.7]</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>[3,2.1]</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>[3,]</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>[3,6.47]</v>
       </c>
     </row>
     <row r="26" spans="1:16">
+      <c r="C26" t="str">
+        <f t="shared" ref="C26" si="23">"["&amp;$B8&amp;","&amp;C8&amp;"]"</f>
+        <v>[4,88.4]</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" ref="D26" si="24">"["&amp;$B8&amp;","&amp;D8&amp;"]"</f>
+        <v>[4,7.2]</v>
+      </c>
       <c r="E26" t="str">
-        <f t="shared" ref="E26:F26" si="13">"["&amp;$B8&amp;","&amp;E8&amp;"]"</f>
+        <f t="shared" ref="E26" si="25">"["&amp;$B8&amp;","&amp;E8&amp;"]"</f>
         <v>[4,124]</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" ref="H26:P26" si="14">"["&amp;$B8&amp;","&amp;H8&amp;"]"</f>
+        <f t="shared" ref="H26:P26" si="26">"["&amp;$B8&amp;","&amp;H8&amp;"]"</f>
         <v>[4,1110]</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>[4,2050]</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>[4,3860]</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>[4,544]</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>[4,890]</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>[4,2.9]</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>[4,2.4]</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>[4,]</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>[4,3.55]</v>
       </c>
     </row>
     <row r="27" spans="1:16">
+      <c r="C27" t="str">
+        <f t="shared" ref="C27" si="27">"["&amp;$B9&amp;","&amp;C9&amp;"]"</f>
+        <v>[4.33,93]</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" ref="D27" si="28">"["&amp;$B9&amp;","&amp;D9&amp;"]"</f>
+        <v>[4.33,7.7]</v>
+      </c>
       <c r="E27" t="str">
-        <f t="shared" ref="E27:F27" si="15">"["&amp;$B9&amp;","&amp;E9&amp;"]"</f>
+        <f t="shared" ref="E27" si="29">"["&amp;$B9&amp;","&amp;E9&amp;"]"</f>
         <v>[4.33,131]</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" ref="H27:P27" si="16">"["&amp;$B9&amp;","&amp;H9&amp;"]"</f>
+        <f t="shared" ref="H27:P27" si="30">"["&amp;$B9&amp;","&amp;H9&amp;"]"</f>
         <v>[4.33,855]</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>[4.33,1350]</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>[4.33,2930]</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>[4.33,493]</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>[4.33,559]</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>[4.33,2.8]</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>[4.33,2.3]</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>[4.33,]</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>[4.33,2.69]</v>
       </c>
     </row>
     <row r="28" spans="1:16">
+      <c r="C28" t="str">
+        <f t="shared" ref="C28" si="31">"["&amp;$B10&amp;","&amp;C10&amp;"]"</f>
+        <v>[5,98.7]</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" ref="D28" si="32">"["&amp;$B10&amp;","&amp;D10&amp;"]"</f>
+        <v>[5,11.8]</v>
+      </c>
       <c r="E28" t="str">
-        <f t="shared" ref="E28:G28" si="17">"["&amp;$B10&amp;","&amp;E10&amp;"]"</f>
+        <f t="shared" ref="E28:G28" si="33">"["&amp;$B10&amp;","&amp;E10&amp;"]"</f>
         <v>[5,139]</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>[5,40]</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" ref="H28:P28" si="18">"["&amp;$B10&amp;","&amp;H10&amp;"]"</f>
+        <f t="shared" ref="H28:P28" si="34">"["&amp;$B10&amp;","&amp;H10&amp;"]"</f>
         <v>[5,901]</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>[5,1237]</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>[5,2620]</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>[5,509]</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>[5,570]</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>[5,3.1]</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>[5,2.5]</v>
       </c>
       <c r="O28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>[5,186.4]</v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>[5,2.07]</v>
       </c>
     </row>
     <row r="29" spans="1:16">
+      <c r="C29" t="str">
+        <f t="shared" ref="C29" si="35">"["&amp;$B11&amp;","&amp;C11&amp;"]"</f>
+        <v>[6,95.3]</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" ref="D29" si="36">"["&amp;$B11&amp;","&amp;D11&amp;"]"</f>
+        <v>[6,9.5]</v>
+      </c>
       <c r="E29" t="str">
-        <f t="shared" ref="E29:G29" si="19">"["&amp;$B11&amp;","&amp;E11&amp;"]"</f>
+        <f t="shared" ref="E29:G29" si="37">"["&amp;$B11&amp;","&amp;E11&amp;"]"</f>
         <v>[6,140]</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="37"/>
         <v>[6,27]</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" ref="H29:P29" si="20">"["&amp;$B11&amp;","&amp;H11&amp;"]"</f>
+        <f t="shared" ref="H29:P29" si="38">"["&amp;$B11&amp;","&amp;H11&amp;"]"</f>
         <v>[6,720]</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>[6,1196]</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>[6,2310]</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>[6,453]</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>[6,521]</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>[6,3.6]</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>[6,2.9]</v>
       </c>
       <c r="O29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>[6,161.3]</v>
       </c>
       <c r="P29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>[6,1.3]</v>
       </c>
     </row>
     <row r="30" spans="1:16">
+      <c r="C30" t="str">
+        <f t="shared" ref="C30" si="39">"["&amp;$B12&amp;","&amp;C12&amp;"]"</f>
+        <v>[8,98.7]</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" ref="D30" si="40">"["&amp;$B12&amp;","&amp;D12&amp;"]"</f>
+        <v>[8,5.8]</v>
+      </c>
       <c r="E30" t="str">
-        <f t="shared" ref="E30:G30" si="21">"["&amp;$B12&amp;","&amp;E12&amp;"]"</f>
+        <f t="shared" ref="E30:G30" si="41">"["&amp;$B12&amp;","&amp;E12&amp;"]"</f>
         <v>[8,171]</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="41"/>
         <v>[8,7.76]</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="41"/>
         <v>[8,20]</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" ref="H30:P30" si="22">"["&amp;$B12&amp;","&amp;H12&amp;"]"</f>
+        <f t="shared" ref="H30:P30" si="42">"["&amp;$B12&amp;","&amp;H12&amp;"]"</f>
         <v>[8,758]</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>[8,549]</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>[8,1610]</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>[8,511]</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>[8,261]</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>[8,4.9]</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>[8,4.1]</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>[8,141.2]</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>[8,0.86]</v>
       </c>
     </row>
     <row r="31" spans="1:16">
+      <c r="C31" t="str">
+        <f t="shared" ref="C31" si="43">"["&amp;$B13&amp;","&amp;C13&amp;"]"</f>
+        <v>[12,93.7]</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" ref="D31" si="44">"["&amp;$B13&amp;","&amp;D13&amp;"]"</f>
+        <v>[12,4.2]</v>
+      </c>
       <c r="E31" t="str">
-        <f t="shared" ref="E31:G31" si="23">"["&amp;$B13&amp;","&amp;E13&amp;"]"</f>
+        <f t="shared" ref="E31:G31" si="45">"["&amp;$B13&amp;","&amp;E13&amp;"]"</f>
         <v>[12,129]</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="45"/>
         <v>[12,10]</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" ref="H31:P31" si="24">"["&amp;$B13&amp;","&amp;H13&amp;"]"</f>
+        <f t="shared" ref="H31:P31" si="46">"["&amp;$B13&amp;","&amp;H13&amp;"]"</f>
         <v>[12,794]</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>[12,251]</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>[12,817]</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>[12,460]</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>[12,161]</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>[12,2.4]</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>[12,1.8]</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>[12,]</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>[12,0.59]</v>
       </c>
     </row>
     <row r="32" spans="1:16">
+      <c r="C32" t="str">
+        <f t="shared" ref="C32" si="47">"["&amp;$B14&amp;","&amp;C14&amp;"]"</f>
+        <v>[16,89]</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" ref="D32" si="48">"["&amp;$B14&amp;","&amp;D14&amp;"]"</f>
+        <v>[16,3]</v>
+      </c>
       <c r="E32" t="str">
-        <f t="shared" ref="E32:F32" si="25">"["&amp;$B14&amp;","&amp;E14&amp;"]"</f>
+        <f t="shared" ref="E32:F32" si="49">"["&amp;$B14&amp;","&amp;E14&amp;"]"</f>
         <v>[16,121]</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="49"/>
         <v>[16,6.16]</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" ref="H32:P32" si="26">"["&amp;$B14&amp;","&amp;H14&amp;"]"</f>
+        <f t="shared" ref="H32:P32" si="50">"["&amp;$B14&amp;","&amp;H14&amp;"]"</f>
         <v>[16,701]</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>[16,93]</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>[16,357]</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>[16,342]</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>[16,136]</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>[16,1.9]</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>[16,1.2]</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>[16,]</v>
       </c>
       <c r="P32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>[16,0.31]</v>
       </c>
     </row>
-    <row r="33" spans="5:16">
+    <row r="33" spans="3:16">
+      <c r="C33" t="str">
+        <f t="shared" ref="C33" si="51">"["&amp;$B15&amp;","&amp;C15&amp;"]"</f>
+        <v>[20,92.1]</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" ref="D33" si="52">"["&amp;$B15&amp;","&amp;D15&amp;"]"</f>
+        <v>[20,3.2]</v>
+      </c>
       <c r="E33" t="str">
-        <f t="shared" ref="E33:F33" si="27">"["&amp;$B15&amp;","&amp;E15&amp;"]"</f>
+        <f t="shared" ref="E33:F33" si="53">"["&amp;$B15&amp;","&amp;E15&amp;"]"</f>
         <v>[20,137]</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="53"/>
         <v>[20,5.77]</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" ref="H33:P33" si="28">"["&amp;$B15&amp;","&amp;H15&amp;"]"</f>
+        <f t="shared" ref="H33:P33" si="54">"["&amp;$B15&amp;","&amp;H15&amp;"]"</f>
         <v>[20,629]</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>[20,65]</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>[20,182]</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>[20,253]</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>[20,142]</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>[20,1.3]</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>[20,0.9]</v>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>[20,]</v>
       </c>
       <c r="P33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>[20,0.27]</v>
       </c>
     </row>
-    <row r="34" spans="5:16">
+    <row r="34" spans="3:16">
+      <c r="C34" t="str">
+        <f t="shared" ref="C34" si="55">"["&amp;$B16&amp;","&amp;C16&amp;"]"</f>
+        <v>[43,101.2]</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" ref="D34" si="56">"["&amp;$B16&amp;","&amp;D16&amp;"]"</f>
+        <v>[43,4.9]</v>
+      </c>
       <c r="E34" t="str">
-        <f t="shared" ref="E34:F34" si="29">"["&amp;$B16&amp;","&amp;E16&amp;"]"</f>
+        <f t="shared" ref="E34:F34" si="57">"["&amp;$B16&amp;","&amp;E16&amp;"]"</f>
         <v>[43,130]</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="57"/>
         <v>[43,3.74]</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" ref="H34:P34" si="30">"["&amp;$B16&amp;","&amp;H16&amp;"]"</f>
+        <f t="shared" ref="H34:P34" si="58">"["&amp;$B16&amp;","&amp;H16&amp;"]"</f>
         <v>[43,320]</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>[43,79]</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>[43,130]</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>[43,105]</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>[43,167]</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>[43,0.9]</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>[43,0.5]</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>[43,]</v>
       </c>
       <c r="P34" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>[43,0.09]</v>
       </c>
     </row>
-    <row r="35" spans="5:16">
+    <row r="35" spans="3:16">
+      <c r="D35" t="str">
+        <f t="shared" ref="D35" si="59">"["&amp;$B17&amp;","&amp;D17&amp;"]"</f>
+        <v>[71,3.7]</v>
+      </c>
       <c r="E35" t="str">
-        <f t="shared" ref="E35:F35" si="31">"["&amp;$B17&amp;","&amp;E17&amp;"]"</f>
+        <f t="shared" ref="E35" si="60">"["&amp;$B17&amp;","&amp;E17&amp;"]"</f>
         <v>[71,147]</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" ref="H35:P35" si="32">"["&amp;$B17&amp;","&amp;H17&amp;"]"</f>
+        <f t="shared" ref="H35:P35" si="61">"["&amp;$B17&amp;","&amp;H17&amp;"]"</f>
         <v>[71,246]</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="61"/>
         <v>[71,33]</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="61"/>
         <v>[71,60]</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="61"/>
         <v>[71,64]</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="61"/>
         <v>[71,133]</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="61"/>
         <v>[71,0.6]</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="61"/>
         <v>[71,0.3]</v>
       </c>
       <c r="O35" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="61"/>
         <v>[71,]</v>
       </c>
       <c r="P35" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="61"/>
         <v>[71,0.07]</v>
       </c>
     </row>
-    <row r="36" spans="5:16">
+    <row r="36" spans="3:16">
+      <c r="D36" t="str">
+        <f t="shared" ref="D36" si="62">"["&amp;$B18&amp;","&amp;D18&amp;"]"</f>
+        <v>[162,3.9]</v>
+      </c>
       <c r="E36" t="str">
-        <f t="shared" ref="E36:F36" si="33">"["&amp;$B18&amp;","&amp;E18&amp;"]"</f>
+        <f t="shared" ref="E36" si="63">"["&amp;$B18&amp;","&amp;E18&amp;"]"</f>
         <v>[162,150]</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" ref="H36:P36" si="34">"["&amp;$B18&amp;","&amp;H18&amp;"]"</f>
+        <f t="shared" ref="H36:P36" si="64">"["&amp;$B18&amp;","&amp;H18&amp;"]"</f>
         <v>[162,211]</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="64"/>
         <v>[162,21]</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="64"/>
         <v>[162,16]</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="64"/>
         <v>[162,42]</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="64"/>
         <v>[162,133]</v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="64"/>
         <v>[162,0.5]</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="64"/>
         <v>[162,0.1]</v>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="64"/>
         <v>[162,]</v>
       </c>
       <c r="P36" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="64"/>
         <v>[162,0.06]</v>
       </c>
     </row>
